--- a/query/query4.xlsx
+++ b/query/query4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,32 +460,45 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>4311950</v>
+        <v>4299600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RESEARCH</t>
+          <t>ACCOUNTING</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>5002130</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>RESEARCH</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5002130</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>SALES</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>30</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4645300</v>
       </c>
     </row>
